--- a/Data/EC/NIT-9002744920.xlsx
+++ b/Data/EC/NIT-9002744920.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EC50EFD-75E2-4C93-9C5B-D35CC90EBFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02257155-4EF8-4A8B-B635-7A8CF3AE3CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3FAF3C60-4351-48B5-8946-B886FDB77FB5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2E2D5908-D7D6-4582-A3E7-06DCEDF6257C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="123">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,237 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1030628003</t>
+  </si>
+  <si>
+    <t>ERICK JOEL DE LA ESPRIELLA CARRANZA</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>960903506081991</t>
+  </si>
+  <si>
+    <t>IRANIS GABRIELA MORON RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>1047480656</t>
+  </si>
+  <si>
+    <t>ADOLFO ENRIQUE PAREDES PEREZ</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>1047506157</t>
+  </si>
+  <si>
+    <t>MARIA GABRIELA FALS GALEZO</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>1143335165</t>
+  </si>
+  <si>
+    <t>SAMMY LEONARDO MORENO VELASQUEZ</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>45535671</t>
+  </si>
+  <si>
+    <t>LILIANA EUGENIA PEREZ MAZO</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>10769193</t>
+  </si>
+  <si>
+    <t>JIMY DE JESUS RESTREPO ARGUMEDO</t>
+  </si>
+  <si>
+    <t>1047464619</t>
+  </si>
+  <si>
+    <t>YENIFER DEL CARMEN DOMINGUEZ PAYAREZ</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>1047367323</t>
+  </si>
+  <si>
+    <t>DIANA PAOLA ALVARADO CASTELLAR</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>1050955347</t>
+  </si>
+  <si>
+    <t>JULIETH CONCEPCION SALGADO GORDON</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>35114780</t>
+  </si>
+  <si>
+    <t>ANA CECILIA ARDILA GRONDONA</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>1064976521</t>
+  </si>
+  <si>
+    <t>ARLEY ALEXANDER ARROYO ARDILA</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>1085225247</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO OROZCO AREVALO</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>45691665</t>
   </si>
   <si>
@@ -74,34 +305,19 @@
     <t>2507</t>
   </si>
   <si>
-    <t>45535671</t>
-  </si>
-  <si>
-    <t>LILIANA EUGENIA PEREZ MAZO</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>1048211973</t>
-  </si>
-  <si>
-    <t>YEISLA YINED RODRIGUEZ CORONEL</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>1143381003</t>
-  </si>
-  <si>
-    <t>ELIANES PIMIENTA VARGAS</t>
+    <t>1070817248</t>
+  </si>
+  <si>
+    <t>JULEIMA ESTHER AVILA SERMENO</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>73191420</t>
+  </si>
+  <si>
+    <t>ABELARDO ACEVEDO SOTO</t>
   </si>
   <si>
     <t>1143365463</t>
@@ -110,13 +326,10 @@
     <t>PAULA ANDREA BERASTEGUI MAZO</t>
   </si>
   <si>
-    <t>1143335165</t>
-  </si>
-  <si>
-    <t>SAMMY LEONARDO MORENO VELASQUEZ</t>
-  </si>
-  <si>
-    <t>2112</t>
+    <t>1128055218</t>
+  </si>
+  <si>
+    <t>YESENIA PATRICIA CASTILLO HERAZO</t>
   </si>
   <si>
     <t>45513613</t>
@@ -131,46 +344,10 @@
     <t>GEOVANY CASSERES PUERTA</t>
   </si>
   <si>
-    <t>1047480656</t>
-  </si>
-  <si>
-    <t>ADOLFO ENRIQUE PAREDES PEREZ</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>1085225247</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO OROZCO AREVALO</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>8854225</t>
-  </si>
-  <si>
-    <t>ADOLFREDO GONZALEZ ARCE</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>1047367323</t>
-  </si>
-  <si>
-    <t>DIANA PAOLA ALVARADO CASTELLAR</t>
-  </si>
-  <si>
-    <t>2404</t>
+    <t>9096882</t>
+  </si>
+  <si>
+    <t>ERNESTO FIDEL MORA SOTO</t>
   </si>
   <si>
     <t>1143361524</t>
@@ -179,205 +356,22 @@
     <t>EIDER EMILIO MOLINARES CONTRERAS</t>
   </si>
   <si>
-    <t>1064976521</t>
-  </si>
-  <si>
-    <t>ARLEY ALEXANDER ARROYO ARDILA</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>1001973635</t>
-  </si>
-  <si>
-    <t>SHEILA VANESSA MARIN VASQUEZ</t>
-  </si>
-  <si>
-    <t>35114780</t>
-  </si>
-  <si>
-    <t>ANA CECILIA ARDILA GRONDONA</t>
-  </si>
-  <si>
     <t>33102497</t>
   </si>
   <si>
     <t>GLADYS JIMENEZ GOMEZ</t>
   </si>
   <si>
-    <t>1030628003</t>
-  </si>
-  <si>
-    <t>ERICK JOEL DE LA ESPRIELLA CARRANZA</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1050955347</t>
-  </si>
-  <si>
-    <t>JULIETH CONCEPCION SALGADO GORDON</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>960903506081991</t>
-  </si>
-  <si>
-    <t>IRANIS GABRIELA MORON RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>1047506157</t>
-  </si>
-  <si>
-    <t>MARIA GABRIELA FALS GALEZO</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>10769193</t>
-  </si>
-  <si>
-    <t>JIMY DE JESUS RESTREPO ARGUMEDO</t>
-  </si>
-  <si>
-    <t>1047464619</t>
-  </si>
-  <si>
-    <t>YENIFER DEL CARMEN DOMINGUEZ PAYAREZ</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>1070817248</t>
-  </si>
-  <si>
-    <t>JULEIMA ESTHER AVILA SERMENO</t>
+    <t>1238338025</t>
+  </si>
+  <si>
+    <t>KRISTOPHER LUIS GUZMAN GONZALEZ</t>
   </si>
   <si>
     <t>1001936912</t>
   </si>
   <si>
     <t>MARIANA DE LOS ANGELES MORA GOMEZ</t>
-  </si>
-  <si>
-    <t>1041975389</t>
-  </si>
-  <si>
-    <t>NATHAN HOEL NAVARRO GARCIA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -476,7 +470,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -489,9 +485,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -691,23 +685,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -735,10 +729,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,7 +785,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87FB3E0-B08A-DAA4-8364-9B9EF3035505}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF1106E-8A92-5B31-A92D-44ED8F2B068D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1142,8 +1136,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43464987-02E7-4C67-A30B-E3C61FE1CEFA}">
-  <dimension ref="B2:J105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F527A0-BA2F-4170-8F60-CCD4A6FD8621}">
+  <dimension ref="B2:J107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1167,7 +1161,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1212,7 +1206,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1244,12 +1238,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4924342</v>
+        <v>5709282</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1260,14 +1254,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C13" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F13" s="5">
         <v>52</v>
@@ -1297,13 +1291,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1320,10 +1314,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="G16" s="18">
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1331,22 +1325,22 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F17" s="18">
-        <v>200000</v>
+        <v>48000</v>
       </c>
       <c r="G17" s="18">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1357,19 +1351,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F18" s="18">
-        <v>200000</v>
+        <v>35112</v>
       </c>
       <c r="G18" s="18">
-        <v>5000000</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1377,22 +1371,22 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>200000</v>
+        <v>48000</v>
       </c>
       <c r="G19" s="18">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1403,19 +1397,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>200000</v>
+        <v>35112</v>
       </c>
       <c r="G20" s="18">
-        <v>5000000</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1426,19 +1420,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F21" s="18">
-        <v>60000</v>
+        <v>35112</v>
       </c>
       <c r="G21" s="18">
-        <v>1500000</v>
+        <v>877803</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1449,19 +1443,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
-        <v>60000</v>
+        <v>35112</v>
       </c>
       <c r="G22" s="18">
-        <v>1500000</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1472,19 +1466,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F23" s="18">
-        <v>120000</v>
+        <v>35112</v>
       </c>
       <c r="G23" s="18">
-        <v>3000000</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1495,19 +1489,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F24" s="18">
-        <v>120000</v>
+        <v>35112</v>
       </c>
       <c r="G24" s="18">
-        <v>3000000</v>
+        <v>877803</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1518,19 +1512,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F25" s="18">
-        <v>72000</v>
+        <v>35112</v>
       </c>
       <c r="G25" s="18">
-        <v>1800000</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1541,19 +1535,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F26" s="18">
-        <v>56940</v>
+        <v>36341</v>
       </c>
       <c r="G26" s="18">
-        <v>1423500</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1564,19 +1558,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
-        <v>80000</v>
+        <v>35112</v>
       </c>
       <c r="G27" s="18">
-        <v>2000000</v>
+        <v>877803</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1587,19 +1581,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G28" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1610,19 +1604,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
       </c>
       <c r="G29" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1633,19 +1627,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
-        <v>140000</v>
+        <v>35112</v>
       </c>
       <c r="G30" s="18">
-        <v>3500000</v>
+        <v>877803</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1656,19 +1650,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
-        <v>140000</v>
+        <v>35112</v>
       </c>
       <c r="G31" s="18">
-        <v>3500000</v>
+        <v>877803</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1679,19 +1673,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
-        <v>140000</v>
+        <v>35112</v>
       </c>
       <c r="G32" s="18">
-        <v>3500000</v>
+        <v>877803</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1702,19 +1696,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F33" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1725,19 +1719,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F34" s="18">
-        <v>56000</v>
+        <v>35112</v>
       </c>
       <c r="G34" s="18">
-        <v>1400000</v>
+        <v>877803</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1748,19 +1742,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F35" s="18">
-        <v>56940</v>
+        <v>200000</v>
       </c>
       <c r="G35" s="18">
-        <v>1423500</v>
+        <v>5000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1771,19 +1765,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F36" s="18">
-        <v>68000</v>
+        <v>80000</v>
       </c>
       <c r="G36" s="18">
-        <v>1700000</v>
+        <v>2500000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1794,19 +1788,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F37" s="18">
-        <v>68000</v>
+        <v>29333</v>
       </c>
       <c r="G37" s="18">
-        <v>1700000</v>
+        <v>1000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1817,19 +1811,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F38" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G38" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1840,19 +1834,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F39" s="18">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="G39" s="18">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1863,19 +1857,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F40" s="18">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="G40" s="18">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1886,19 +1880,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F41" s="18">
-        <v>56940</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1909,19 +1903,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F42" s="18">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>2300000</v>
+        <v>1000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1932,19 +1926,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F43" s="18">
-        <v>72000</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>1800000</v>
+        <v>1000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1955,19 +1949,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F44" s="18">
-        <v>26400</v>
+        <v>40000</v>
       </c>
       <c r="G44" s="18">
-        <v>1800000</v>
+        <v>1000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1975,22 +1969,22 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F45" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G45" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1998,22 +1992,22 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F46" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G46" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2024,19 +2018,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F47" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G47" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2047,19 +2041,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F48" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G48" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2070,19 +2064,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F49" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G49" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2093,19 +2087,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F50" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G50" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2116,19 +2110,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F51" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G51" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2139,19 +2133,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F52" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G52" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2162,19 +2156,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F53" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G53" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2185,19 +2179,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F54" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G54" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2208,19 +2202,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F55" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G55" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2231,19 +2225,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F56" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G56" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2254,19 +2248,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F57" s="18">
-        <v>35112</v>
+        <v>56000</v>
       </c>
       <c r="G57" s="18">
-        <v>877803</v>
+        <v>1400000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2277,19 +2271,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F58" s="18">
-        <v>35112</v>
+        <v>26400</v>
       </c>
       <c r="G58" s="18">
-        <v>877803</v>
+        <v>2000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2300,19 +2294,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F59" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G59" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2323,19 +2317,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F60" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G60" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2346,13 +2340,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F61" s="18">
         <v>40000</v>
@@ -2369,13 +2363,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F62" s="18">
         <v>40000</v>
@@ -2392,13 +2386,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F63" s="18">
         <v>40000</v>
@@ -2415,13 +2409,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="F64" s="18">
         <v>40000</v>
@@ -2438,13 +2432,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F65" s="18">
         <v>40000</v>
@@ -2461,19 +2455,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F66" s="18">
-        <v>40000</v>
+        <v>200000</v>
       </c>
       <c r="G66" s="18">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2484,13 +2478,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F67" s="18">
         <v>40000</v>
@@ -2507,19 +2501,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F68" s="18">
-        <v>40000</v>
+        <v>72000</v>
       </c>
       <c r="G68" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2530,13 +2524,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="F69" s="18">
         <v>40000</v>
@@ -2553,13 +2547,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F70" s="18">
         <v>40000</v>
@@ -2576,19 +2570,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F71" s="18">
-        <v>40000</v>
+        <v>200000</v>
       </c>
       <c r="G71" s="18">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2599,19 +2593,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F72" s="18">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="G72" s="18">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2622,13 +2616,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F73" s="18">
         <v>40000</v>
@@ -2645,13 +2639,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F74" s="18">
         <v>40000</v>
@@ -2668,19 +2662,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="E75" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E75" s="16" t="s">
-        <v>88</v>
-      </c>
       <c r="F75" s="18">
-        <v>40000</v>
+        <v>68000</v>
       </c>
       <c r="G75" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2691,13 +2685,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D76" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F76" s="18">
         <v>40000</v>
@@ -2714,19 +2708,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F77" s="18">
-        <v>40000</v>
+        <v>140000</v>
       </c>
       <c r="G77" s="18">
-        <v>1000000</v>
+        <v>3500000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2737,13 +2731,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F78" s="18">
         <v>40000</v>
@@ -2760,19 +2754,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F79" s="18">
-        <v>40000</v>
+        <v>140000</v>
       </c>
       <c r="G79" s="18">
-        <v>1000000</v>
+        <v>3500000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2783,13 +2777,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F80" s="18">
         <v>40000</v>
@@ -2806,19 +2800,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F81" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G81" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2829,19 +2823,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F82" s="18">
-        <v>40000</v>
+        <v>140000</v>
       </c>
       <c r="G82" s="18">
-        <v>1000000</v>
+        <v>3500000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2852,13 +2846,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F83" s="18">
         <v>40000</v>
@@ -2875,19 +2869,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F84" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G84" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2898,19 +2892,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F85" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G85" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2921,19 +2915,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F86" s="18">
-        <v>40000</v>
+        <v>280000</v>
       </c>
       <c r="G86" s="18">
-        <v>1000000</v>
+        <v>7000000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2944,19 +2938,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F87" s="18">
-        <v>40000</v>
+        <v>200000</v>
       </c>
       <c r="G87" s="18">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2967,19 +2961,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F88" s="18">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="G88" s="18">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2990,19 +2984,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F89" s="18">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="G89" s="18">
-        <v>1000000</v>
+        <v>2500000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3013,19 +3007,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F90" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G90" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3036,19 +3030,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F91" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G91" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3059,19 +3053,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F92" s="18">
-        <v>40000</v>
+        <v>400000</v>
       </c>
       <c r="G92" s="18">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3082,19 +3076,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F93" s="18">
-        <v>40000</v>
+        <v>140000</v>
       </c>
       <c r="G93" s="18">
-        <v>1000000</v>
+        <v>3500000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3105,19 +3099,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F94" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G94" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3128,19 +3122,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D95" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D95" s="17" t="s">
-        <v>81</v>
-      </c>
       <c r="E95" s="16" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F95" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G95" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3151,19 +3145,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="F96" s="18">
-        <v>29333</v>
+        <v>120000</v>
       </c>
       <c r="G96" s="18">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3174,13 +3168,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F97" s="18">
         <v>56940</v>
@@ -3197,75 +3191,121 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F98" s="18">
-        <v>56940</v>
+        <v>120000</v>
       </c>
       <c r="G98" s="18">
-        <v>1423500</v>
+        <v>3000000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D99" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F99" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G99" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="26"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C104" s="32"/>
-      <c r="H104" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="32" t="s">
+      <c r="B99" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F99" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G99" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G100" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F101" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G101" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="26"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C106" s="32"/>
+      <c r="H106" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="32"/>
+      <c r="H107" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C105" s="32"/>
-      <c r="H105" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="H106:J106"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
